--- a/data/georgia_census/imereti/kutaisi/disability_prevalence.xlsx
+++ b/data/georgia_census/imereti/kutaisi/disability_prevalence.xlsx
@@ -875,13 +875,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23120784-45C8-44FD-AC17-3BFA549DD1B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7C6F95-2041-4381-A55F-622FFF58F248}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{225676C6-1A2E-472D-9CED-AC3658EAD2EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E13535-A93B-49BA-A351-7EC7F1764D5A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CBAAB11-A9C9-4CD5-B09F-2305D8E90FF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87D8973-13BA-44BB-95AE-B25A508EC497}"/>
 </file>
--- a/data/georgia_census/imereti/kutaisi/disability_prevalence.xlsx
+++ b/data/georgia_census/imereti/kutaisi/disability_prevalence.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\შშმ პირები სრული\სოც. დახ. ბაზ. რეგ. შშმ პირები ქარ. EN\მუნიციპალიტეტი\EN\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\შშმ პირები სრული\დევნილი შშმ პირები ქარ. EN\მუნიციპალიტეტი\EN\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D4314D-BFFA-4399-95A6-440AE8A76513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53E52A-190A-4B51-8E90-23D07708CC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{678E4DE4-C647-44FA-920F-70F3C188BA9A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5A32126C-9B11-445B-BA17-94C72F9786C8}"/>
   </bookViews>
   <sheets>
     <sheet name="C.Kutaisi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>(End of year, persons)</t>
+  </si>
+  <si>
+    <t>Number of disability persons</t>
   </si>
   <si>
     <r>
@@ -53,47 +55,23 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">family with disabilities Persons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">disabilities Persons </t>
-  </si>
-  <si>
-    <t>The number of persons with disabilities registered in the Unified database of targeted social assistance program in C. Kutaisi Municipality</t>
+    <t>Number of Internally Displaced Disability Persons Receiving Social Package in C. Kutaisi Municipality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -103,6 +81,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -118,6 +102,12 @@
       <u/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -174,45 +164,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{BEF522A9-2AD6-4DAD-A8C1-52B78F158236}"/>
-    <cellStyle name="Comma 3" xfId="4" xr:uid="{E298EC3B-CB9A-4AB6-ABFF-F968FEA4E95B}"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{427CB489-A07A-4491-B59E-A7C501DA5D05}"/>
-    <cellStyle name="Normal_01_IANVARI" xfId="2" xr:uid="{4B9A7469-AC35-48FB-8CC2-8E7BD64B8A63}"/>
+    <cellStyle name="Normal_01_IANVARI" xfId="1" xr:uid="{6F131FFA-B50B-4D9F-BD69-276859E625FE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,38 +506,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9B46AF-A91B-4475-9DA7-525AD3351F02}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3897C-AD82-4D74-A40C-FD3DBD2FEBFB}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="1" customWidth="1"/>
+    <col min="2" max="16" width="7.6328125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
       <c r="B3" s="2">
         <v>2017</v>
       </c>
@@ -580,308 +555,51 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>360</v>
+      </c>
+      <c r="C4" s="4">
+        <v>336</v>
+      </c>
+      <c r="D4" s="5">
+        <v>318</v>
+      </c>
+      <c r="E4" s="5">
+        <v>302</v>
+      </c>
+      <c r="F4" s="5">
+        <v>282</v>
+      </c>
+      <c r="G4" s="10">
+        <v>415</v>
+      </c>
+      <c r="H4" s="10">
+        <v>423</v>
+      </c>
+      <c r="I4" s="10">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>2100</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2026</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1807</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1868</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1881</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1901</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1867</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2446</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2345</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2083</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2143</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2151</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2177</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2126</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100296A177D58971E44B8B4FF90271E5809" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e543391c9de5e20558410d7020b0973">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd81ea76-f238-4358-93f4-2eba630130d6" xmlns:ns3="6a3787d7-595d-4e85-950e-9dd9e3510105" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7947dee34e7d103bf8ba84027a02d949" ns2:_="" ns3:_="">
-    <xsd:import namespace="bd81ea76-f238-4358-93f4-2eba630130d6"/>
-    <xsd:import namespace="6a3787d7-595d-4e85-950e-9dd9e3510105"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd81ea76-f238-4358-93f4-2eba630130d6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fa0c477a-f09e-4137-8c49-77869fdcca91" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6a3787d7-595d-4e85-950e-9dd9e3510105" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d5673a6a-7e39-4016-93cc-b68360732b87}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6a3787d7-595d-4e85-950e-9dd9e3510105">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6a3787d7-595d-4e85-950e-9dd9e3510105" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd81ea76-f238-4358-93f4-2eba630130d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7C6F95-2041-4381-A55F-622FFF58F248}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E13535-A93B-49BA-A351-7EC7F1764D5A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87D8973-13BA-44BB-95AE-B25A508EC497}"/>
 </file>
--- a/data/georgia_census/imereti/kutaisi/disability_prevalence.xlsx
+++ b/data/georgia_census/imereti/kutaisi/disability_prevalence.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\შშმ პირები სრული\დევნილი შშმ პირები ქარ. EN\მუნიციპალიტეტი\EN\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\შშმ პირები სრული\სოც. დახ. ბაზ. რეგ. შშმ პირები ქარ. EN\მუნიციპალიტეტი\EN\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53E52A-190A-4B51-8E90-23D07708CC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D4314D-BFFA-4399-95A6-440AE8A76513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5A32126C-9B11-445B-BA17-94C72F9786C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{678E4DE4-C647-44FA-920F-70F3C188BA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="C.Kutaisi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>(End of year, persons)</t>
-  </si>
-  <si>
-    <t>Number of disability persons</t>
   </si>
   <si>
     <r>
@@ -55,17 +53,24 @@
     </r>
   </si>
   <si>
-    <t>Number of Internally Displaced Disability Persons Receiving Social Package in C. Kutaisi Municipality</t>
+    <t xml:space="preserve">family with disabilities Persons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabilities Persons </t>
+  </si>
+  <si>
+    <t>The number of persons with disabilities registered in the Unified database of targeted social assistance program in C. Kutaisi Municipality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +79,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -81,12 +103,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -102,12 +118,6 @@
       <u/>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -164,38 +174,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{BEF522A9-2AD6-4DAD-A8C1-52B78F158236}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{E298EC3B-CB9A-4AB6-ABFF-F968FEA4E95B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_01_IANVARI" xfId="1" xr:uid="{6F131FFA-B50B-4D9F-BD69-276859E625FE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{427CB489-A07A-4491-B59E-A7C501DA5D05}"/>
+    <cellStyle name="Normal_01_IANVARI" xfId="2" xr:uid="{4B9A7469-AC35-48FB-8CC2-8E7BD64B8A63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,30 +523,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3897C-AD82-4D74-A40C-FD3DBD2FEBFB}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9B46AF-A91B-4475-9DA7-525AD3351F02}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="1" customWidth="1"/>
-    <col min="2" max="16" width="7.6328125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="20.81640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>2017</v>
       </c>
@@ -555,50 +580,80 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2026</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1807</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1868</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1881</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1901</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1867</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2446</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2345</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2083</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2143</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2151</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2177</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2126</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>360</v>
-      </c>
-      <c r="C4" s="4">
-        <v>336</v>
-      </c>
-      <c r="D4" s="5">
-        <v>318</v>
-      </c>
-      <c r="E4" s="5">
-        <v>302</v>
-      </c>
-      <c r="F4" s="5">
-        <v>282</v>
-      </c>
-      <c r="G4" s="10">
-        <v>415</v>
-      </c>
-      <c r="H4" s="10">
-        <v>423</v>
-      </c>
-      <c r="I4" s="10">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:H5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
